--- a/data/trans_bre/P20_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,13</t>
+          <t>-17,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,64</t>
+          <t>-16,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-66,18%</t>
+          <t>-76,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-60,55%</t>
+          <t>-55,49%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 0,11</t>
+          <t>-53,84; 0,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 2,32</t>
+          <t>-57,97; 7,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-95,71; 20,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-87,14; 35,13</t>
+          <t>-93,72; 95,37</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>113,97%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>-4,58%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 12,66</t>
+          <t>-1,67; 10,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 5,62</t>
+          <t>-7,69; 6,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,49; 279,05</t>
+          <t>-20,36; 253,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 64,02</t>
+          <t>-48,65; 78,67</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73,66%</t>
+          <t>44,13%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 12,71</t>
+          <t>-5,42; 12,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 12,73</t>
+          <t>-3,07; 12,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 152,04</t>
+          <t>-33,27; 138,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 191,77</t>
+          <t>-23,62; 191,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 8,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 106,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 39,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-6,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 6,37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; 4,47</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-35,38; 77,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-47,53; 44,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P20_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-17,97</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-16,62</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-76,37%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-55,49%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-18.33340281590756</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-12.6328401559245</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.7480249870776485</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.4351034313149396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-53,84; 0,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-57,97; 7,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-93,72; 95,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-51.36147184465146</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-45.47500718672904</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.9287055387493296</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.003306050842576</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.24362136764923</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>1.046069789958388</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>59,65%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 10,92</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,69; 6,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,36; 253,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-48,65; 78,67</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.095318113850872</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7701540829938597</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.6838754690797336</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.06455455640555828</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,53</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>28,44%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>44,13%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.75143557577832</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.607998271705978</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2138860802870021</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4429811694340587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; 12,09</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,07; 12,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-33,27; 138,31</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-23,62; 191,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.55398885188851</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.654438592498705</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.588330322841973</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.9030904988864088</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +712,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.876270760865945</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.74303622881846</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.200589690704016</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.5996307229304829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.102973376345233</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.625939045551183</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.3403293282573081</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1390292389966418</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.59461499935675</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.47139315880504</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.05877122300431</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.405476747466475</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,45%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 6,37</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,25; 4,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-35,38; 77,19</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-47,53; 44,75</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.379692339404939</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8264491217896713</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1117573693049226</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.06146596372889402</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.238052507109469</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.119104747933299</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3928450439089866</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3825521281317267</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.437822407897574</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.516711394734398</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.7002035297329633</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6725567302051082</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
